--- a/raw/SPFT-questions-test.xlsx
+++ b/raw/SPFT-questions-test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>fq1</t>
   </si>
@@ -87,16 +87,25 @@
     <t>outcome</t>
   </si>
   <si>
-    <t>Will the new US administration lift sanctions against Russia which were implemented by President Obama’s executive orders before April 24, 2017?</t>
-  </si>
-  <si>
-    <t>Will Vietnam take its territorial dispute with China in the South Chinese Sea to an international court or arbitration by April 24, 2017?</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>fq21</t>
+  </si>
+  <si>
+    <t>fq22</t>
+  </si>
+  <si>
+    <t>fq23</t>
+  </si>
+  <si>
+    <t>fq24</t>
+  </si>
+  <si>
+    <t>Is this the event asked in the question?</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,10 +471,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -473,10 +482,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,10 +493,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,10 +504,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,10 +515,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,10 +526,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -528,10 +537,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -539,10 +548,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -550,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -561,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -572,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -583,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -594,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -605,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -616,10 +625,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -627,10 +636,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -638,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -649,10 +658,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -660,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -671,10 +680,54 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/raw/SPFT-questions-test.xlsx
+++ b/raw/SPFT-questions-test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>fq1</t>
   </si>
@@ -105,20 +105,95 @@
     <t>fq24</t>
   </si>
   <si>
-    <t>Is this the event asked in the question?</t>
+    <t>1. Will the new US administration lift or loosen its sanctions against Russia before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>2. Will North Korea conduct another nuclear weapon test before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>3. Will Vietnam take its territorial dispute with China in the South Chinese Sea to an international court or arbitration by April 24, 2017?</t>
+  </si>
+  <si>
+    <t>4. Will the U.S. President meet a high-level official representative of Taiwan before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>5. Will India face an attack by militants operating out of Pakistan before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>6. Will the U.S. government announce a change to its NATO troop deployment plans in Eastern Europe before April 24, 2017</t>
+  </si>
+  <si>
+    <t>7. Will the U.S. government reintroduce sanctions against Iran which it lifted in the Iran Nuclear Deal before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>8. Will the Islamic State (IS) still have full administrative control of Ar-Raqqa by April 24, 2017?</t>
+  </si>
+  <si>
+    <t>9. Will the Islamic State (IS) have lost administrative control of all districts in Mosul by April 24, 2017?</t>
+  </si>
+  <si>
+    <t>10. Will the Afghan government control less than 60% of the territory of Afghanistan by April 24, 2017?</t>
+  </si>
+  <si>
+    <t>11. Will a FARC splinter group launch a deadly attack in Colombia despite the peace deal before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>12. Will the conflict between the Turkish government and the PKK cause the death of more than 100 individuals between February 12 and April 24, 2017?</t>
+  </si>
+  <si>
+    <t>13. Will the selection of the Hong Kong Chief Executive on March 26, 2017 be accompanied by protests involving more than 10000 people?</t>
+  </si>
+  <si>
+    <t>14. Will IS claim responsibility for another attack with a truck inside the European Union by 24. April 2017?</t>
+  </si>
+  <si>
+    <t>15. Will Boko Haram claim responsibility for a single attack or day with more than 20 deaths between February 12 and April 27, 2017?</t>
+  </si>
+  <si>
+    <t>16. Will Saudi-Arabia conduct a bombing attack in Yemen with more than 30 deaths between February 12 and April 24, 2017?</t>
+  </si>
+  <si>
+    <t>17. Will the U.S. government announce a plan for Syria involving a no-flight zone before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>18. Will the cease-fire agreement sponsored by Russia and Turkey between Syrian conflict parties hold at least until April 24, 2017?</t>
+  </si>
+  <si>
+    <t>19. Will there be a peace agreement signed between the Syrian government and some armed groups before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>20. Will the new U.S. administration announce an increase of deployed U.S. troops in Iraq before April 24, 2017?</t>
+  </si>
+  <si>
+    <t>21. Will the next OHCHR Ukraine report find more than 150 civilian casualties in Ukraine for the reporting period November 2016 to February 2017?</t>
+  </si>
+  <si>
+    <t>22. Will there be a single event with more than 50 dead civilians according to international media in Syria between February 12 and April 24, 2017?</t>
+  </si>
+  <si>
+    <t>23. Will the Islamic State claim the responsibility for an attack in Myanmar by April 24, 2017?</t>
+  </si>
+  <si>
+    <t>24. Will Boko Haram commit three or more suicide attacks in Cameroon between February 12 and April 24, 2017?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,8 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -493,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -504,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -515,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -526,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -537,7 +615,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -548,7 +626,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -559,7 +637,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -570,7 +648,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -581,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -592,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -603,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -614,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -625,7 +703,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -636,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -647,7 +725,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -658,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -669,7 +747,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -680,7 +758,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -691,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -702,7 +780,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -713,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -724,11 +802,17 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw/SPFT-questions-test.xlsx
+++ b/raw/SPFT-questions-test.xlsx
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -574,7 +574,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,7 +596,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,7 +640,7 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,7 +651,7 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -695,7 +695,7 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
         <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,7 +750,7 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
         <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -794,7 +794,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
